--- a/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5829</v>
+        <v>4972</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002102120664225622</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01246868347397321</v>
+        <v>0.01063545067594176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4904</v>
+        <v>5253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00102201181032115</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005100486441004704</v>
+        <v>0.005463165009335668</v>
       </c>
     </row>
     <row r="5">
@@ -820,7 +820,7 @@
         <v>466506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461660</v>
+        <v>462517</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -829,7 +829,7 @@
         <v>0.9978978793357743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9875313165260269</v>
+        <v>0.9893645493240583</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>960570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956649</v>
+        <v>956300</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -850,7 +850,7 @@
         <v>0.9989779881896789</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9948995135589953</v>
+        <v>0.994536834990665</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,19 +945,19 @@
         <v>2982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8467</v>
+        <v>8116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004054562358076935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001189216242486147</v>
+        <v>0.001195203254468041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01151190225829697</v>
+        <v>0.01103533252844095</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -966,19 +966,19 @@
         <v>2989</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7950</v>
+        <v>8155</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004777909333083525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>0.001532696468636525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01271025051868424</v>
+        <v>0.01303824105540944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -987,19 +987,19 @@
         <v>5971</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2704</v>
+        <v>2834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12073</v>
+        <v>13349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004387005343538494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001986843596004797</v>
+        <v>0.002082214544753085</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008870769269473871</v>
+        <v>0.009808103412320041</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>732507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>727022</v>
+        <v>727373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>734614</v>
+        <v>734610</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9959454376419231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9884880977417033</v>
+        <v>0.988964667471559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9988107837575139</v>
+        <v>0.998804796745532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -1037,19 +1037,19 @@
         <v>622505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617544</v>
+        <v>617339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>625494</v>
+        <v>624535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9952220906669165</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9872897494813162</v>
+        <v>0.9869617589445905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>1</v>
+        <v>0.9984673035313635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1288</v>
@@ -1058,19 +1058,19 @@
         <v>1355011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1348909</v>
+        <v>1347633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1358278</v>
+        <v>1358148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9956129946564615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9911292307305261</v>
+        <v>0.9901918965876798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980131564039951</v>
+        <v>0.9979177854552469</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>5381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1578</v>
+        <v>1129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14231</v>
+        <v>14563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008426018219322729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002470060633214287</v>
+        <v>0.001767342525989475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02228252199784858</v>
+        <v>0.02280229168084539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1183,19 +1183,19 @@
         <v>7289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3072</v>
+        <v>3035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14813</v>
+        <v>14436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01056778323735458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004453231685158602</v>
+        <v>0.004400083383530971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02147654432494436</v>
+        <v>0.02092984165842499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1204,19 +1204,19 @@
         <v>12670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6923</v>
+        <v>6589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23043</v>
+        <v>22361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009538075544953379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005211622240244506</v>
+        <v>0.004960153376165033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0173464966849018</v>
+        <v>0.01683269373040604</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>633287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624437</v>
+        <v>624105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637090</v>
+        <v>637539</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915739817806772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9777174780021515</v>
+        <v>0.9771977083191554</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975299393667857</v>
+        <v>0.9982326574740106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1254,19 +1254,19 @@
         <v>682455</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674931</v>
+        <v>675308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686672</v>
+        <v>686709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9894322167626454</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785234556750556</v>
+        <v>0.979070158341575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9955467683148415</v>
+        <v>0.9955999166164691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -1275,19 +1275,19 @@
         <v>1315742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1305369</v>
+        <v>1306051</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321489</v>
+        <v>1321823</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9904619244550467</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9826535033150982</v>
+        <v>0.9831673062695939</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9947883777597555</v>
+        <v>0.9950398466238349</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>8818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4006</v>
+        <v>4054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16375</v>
+        <v>16810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01698491028723124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007717242504947154</v>
+        <v>0.007809486242637432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03154161398216519</v>
+        <v>0.03237935588308865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1400,19 +1400,19 @@
         <v>9932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4927</v>
+        <v>4922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18697</v>
+        <v>17084</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01926155011506536</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009555113034785033</v>
+        <v>0.009546280191966187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03625996987349523</v>
+        <v>0.03313175690403704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1421,19 +1421,19 @@
         <v>18750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11784</v>
+        <v>12150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29669</v>
+        <v>31305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0181193744670389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01138804156837874</v>
+        <v>0.01174161534545004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02867197019817233</v>
+        <v>0.03025260078964998</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>510329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502772</v>
+        <v>502337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>515141</v>
+        <v>515093</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9830150897127687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684583860178347</v>
+        <v>0.9676206441169113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922827574950528</v>
+        <v>0.9921905137573626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -1471,19 +1471,19 @@
         <v>505710</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>496945</v>
+        <v>498558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>510715</v>
+        <v>510720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9807384498849346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9637400301265048</v>
+        <v>0.9668682430959625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9904448869652149</v>
+        <v>0.9904537198080338</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>968</v>
@@ -1492,19 +1492,19 @@
         <v>1016039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1005120</v>
+        <v>1003484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1023005</v>
+        <v>1022639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9818806255329611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9713280298018275</v>
+        <v>0.9697473992103494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9886119584316212</v>
+        <v>0.9882583846545498</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6189</v>
+        <v>7035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005128374630231566</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01600354228116498</v>
+        <v>0.01819077581695519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         <v>6441</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13353</v>
+        <v>14127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01594388779995438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006022548112330681</v>
+        <v>0.006031900508450532</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03305406372322091</v>
+        <v>0.03496839466478172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1638,19 +1638,19 @@
         <v>8424</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3862</v>
+        <v>3276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15696</v>
+        <v>17080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01065428547057358</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004883829859553882</v>
+        <v>0.004143212638247243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01985102224487765</v>
+        <v>0.02160121120599917</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>384727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>380521</v>
+        <v>379675</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>386710</v>
@@ -1676,7 +1676,7 @@
         <v>0.9948716253697685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9839964577188351</v>
+        <v>0.9818092241830448</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1688,19 +1688,19 @@
         <v>397545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>390633</v>
+        <v>389859</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>401553</v>
+        <v>401549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9840561122000456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9669459362767791</v>
+        <v>0.9650316053352183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9939774518876693</v>
+        <v>0.9939680994915494</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>780</v>
@@ -1709,19 +1709,19 @@
         <v>782272</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>775000</v>
+        <v>773616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>786834</v>
+        <v>787420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9893457145294264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9801489777551223</v>
+        <v>0.9783987887940009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9951161701404461</v>
+        <v>0.9958567873617528</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>3654</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8403</v>
+        <v>8382</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01249011323469823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003108963948238311</v>
+        <v>0.003226410489609059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02872025104221214</v>
+        <v>0.02864807838972205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1834,19 +1834,19 @@
         <v>4564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10145</v>
+        <v>10936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01330858982612699</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005216003703431925</v>
+        <v>0.005242172349614833</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02958283797452146</v>
+        <v>0.03188816057916282</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1855,19 +1855,19 @@
         <v>8218</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4465</v>
+        <v>3747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15213</v>
+        <v>14571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01293177482823179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007025819625352399</v>
+        <v>0.005895659259684561</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02393756653767218</v>
+        <v>0.02292744426778668</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>288929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284180</v>
+        <v>284201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291673</v>
+        <v>291639</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9875098867653017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9712797489577879</v>
+        <v>0.9713519216102781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9968910360517617</v>
+        <v>0.9967735895103909</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>366</v>
@@ -1905,19 +1905,19 @@
         <v>338370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>332789</v>
+        <v>331998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341145</v>
+        <v>341136</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.986691410173873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9704171620254785</v>
+        <v>0.9681118394208372</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9947839962965681</v>
+        <v>0.9947578276503852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>665</v>
@@ -1926,19 +1926,19 @@
         <v>627299</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>620304</v>
+        <v>620946</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>631052</v>
+        <v>631770</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9870682251717682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9760624334623278</v>
+        <v>0.9770725557322134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9929741803746477</v>
+        <v>0.9941043407403155</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>6922</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2689</v>
+        <v>3338</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14238</v>
+        <v>15331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03298057639618477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01281348033284369</v>
+        <v>0.01590503876800365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06783970563471171</v>
+        <v>0.07304394289933978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2051,19 +2051,19 @@
         <v>7278</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2714</v>
+        <v>2737</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14610</v>
+        <v>15501</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0217967799265921</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008127817328988748</v>
+        <v>0.008196011934682232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04375310205238329</v>
+        <v>0.04642171100229909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2072,19 +2072,19 @@
         <v>14200</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7065</v>
+        <v>6911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22870</v>
+        <v>22740</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0261133074788859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01299273723312393</v>
+        <v>0.01270960870539135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0420560788340598</v>
+        <v>0.04181836888916974</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>202961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195645</v>
+        <v>194552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207194</v>
+        <v>206545</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9670194236038152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9321602943652884</v>
+        <v>0.9269560571006601</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9871865196671563</v>
+        <v>0.9840949612319964</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>283</v>
@@ -2122,19 +2122,19 @@
         <v>326630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319298</v>
+        <v>318407</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>331194</v>
+        <v>331171</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9782032200734079</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9562468979476167</v>
+        <v>0.9535782889977004</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9918721826710112</v>
+        <v>0.9918039880653178</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>496</v>
@@ -2143,19 +2143,19 @@
         <v>529591</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>520921</v>
+        <v>521051</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>536726</v>
+        <v>536880</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9738866925211142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9579439211659402</v>
+        <v>0.9581816311108302</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.987007262766876</v>
+        <v>0.9872903912946086</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>29741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009076891393513425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2268,19 +2268,19 @@
         <v>39476</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01168194555370886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2289,19 +2289,19 @@
         <v>69216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01039950783791335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3246802</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3234380</v>
+        <v>3233559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3257850</v>
+        <v>3256880</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9909231086064866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9871317531531463</v>
+        <v>0.9868813683951304</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9942947646835746</v>
+        <v>0.9939989667459381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3258</v>
@@ -2339,19 +2339,19 @@
         <v>3339721</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3325227</v>
+        <v>3324775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3351233</v>
+        <v>3350516</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9883180544462912</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9840286142422263</v>
+        <v>0.9838950513761708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9917246818541876</v>
+        <v>0.9915124454065006</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6444</v>
@@ -2360,19 +2360,19 @@
         <v>6586525</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6567022</v>
+        <v>6568314</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6600943</v>
+        <v>6602718</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9896004921620867</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9866703500249402</v>
+        <v>0.9868644085328053</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9917668182714288</v>
+        <v>0.9920335519836774</v>
       </c>
     </row>
     <row r="27">
@@ -2707,19 +2707,19 @@
         <v>2881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7778</v>
+        <v>7712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006343930685634344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002064309251451905</v>
+        <v>0.002069869657340647</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0171256482845136</v>
+        <v>0.01698195719172701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2728,19 +2728,19 @@
         <v>7715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3772</v>
+        <v>2959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14633</v>
+        <v>14807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01793313678459357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00876670544687657</v>
+        <v>0.006877416919375087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0340127934587485</v>
+        <v>0.03441590905767825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2749,19 +2749,19 @@
         <v>10596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5834</v>
+        <v>5013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17273</v>
+        <v>18465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01198182917622975</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006596565578166511</v>
+        <v>0.005668406194288947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0195308894261615</v>
+        <v>0.02087881290128211</v>
       </c>
     </row>
     <row r="5">
@@ -2778,19 +2778,19 @@
         <v>451265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446368</v>
+        <v>446434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453209</v>
+        <v>453206</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9936560693143657</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9828743517154864</v>
+        <v>0.983018042808273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.997935690748548</v>
+        <v>0.9979301303426593</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>413</v>
@@ -2799,19 +2799,19 @@
         <v>422515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>415597</v>
+        <v>415423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426458</v>
+        <v>427271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9820668632154065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9659872065412509</v>
+        <v>0.9655840909423212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9912332945531235</v>
+        <v>0.9931225830806247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>856</v>
@@ -2820,19 +2820,19 @@
         <v>873780</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>867103</v>
+        <v>865911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>878542</v>
+        <v>879363</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9880181708237702</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9804691105738386</v>
+        <v>0.9791211870987179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934034344218334</v>
+        <v>0.9943315938057111</v>
       </c>
     </row>
     <row r="6">
@@ -2924,19 +2924,19 @@
         <v>10413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4904</v>
+        <v>4772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18907</v>
+        <v>19538</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01515589339731714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00713746705715541</v>
+        <v>0.00694577634104679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02751773083781186</v>
+        <v>0.02843564467610198</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2945,19 +2945,19 @@
         <v>5682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2007</v>
+        <v>1881</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13134</v>
+        <v>12065</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009310889915440487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003288162095571655</v>
+        <v>0.003082845635848522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02152293131874735</v>
+        <v>0.01976986116391438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -2966,19 +2966,19 @@
         <v>16095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8673</v>
+        <v>8706</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26453</v>
+        <v>27096</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0124064689930505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006685367802508102</v>
+        <v>0.00671098204695489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02039015406057011</v>
+        <v>0.02088587351934636</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>676674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>668180</v>
+        <v>667549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>682183</v>
+        <v>682315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9848441066026828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9724822691621889</v>
+        <v>0.971564355323898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9928625329428449</v>
+        <v>0.9930542236589532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>566</v>
@@ -3016,19 +3016,19 @@
         <v>604573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>597121</v>
+        <v>598190</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>608248</v>
+        <v>608374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9906891100845595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9784770686812526</v>
+        <v>0.9802301388360856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967118379044283</v>
+        <v>0.9969171543641514</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1224</v>
@@ -3037,19 +3037,19 @@
         <v>1281247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1270889</v>
+        <v>1270246</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1288669</v>
+        <v>1288636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9875935310069495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.97960984593943</v>
+        <v>0.9791141264806543</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9933146321974918</v>
+        <v>0.9932890179530451</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>8597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3789</v>
+        <v>3696</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18195</v>
+        <v>17658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0126082333996839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005557063220709719</v>
+        <v>0.005420582511459262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02668393251170063</v>
+        <v>0.02589708074142049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3162,19 +3162,19 @@
         <v>21561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13625</v>
+        <v>13066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31774</v>
+        <v>31909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03033065848499982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01916726890864294</v>
+        <v>0.01838093024999447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04469802519470907</v>
+        <v>0.04488814379304754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3183,19 +3183,19 @@
         <v>30158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19493</v>
+        <v>20326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43310</v>
+        <v>43400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02165387738239437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01399660951477831</v>
+        <v>0.01459480762037275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03109763400937229</v>
+        <v>0.03116195214222038</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>673266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663668</v>
+        <v>664205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678074</v>
+        <v>678167</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9873917666003161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9733160674882995</v>
+        <v>0.9741029192585795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9944429367792902</v>
+        <v>0.9945794174885406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>647</v>
@@ -3233,19 +3233,19 @@
         <v>689289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>679076</v>
+        <v>678941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>697225</v>
+        <v>697784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9696693415150002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9553019748052909</v>
+        <v>0.9551118562069525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.980832731091357</v>
+        <v>0.9816190697500057</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1291</v>
@@ -3254,19 +3254,19 @@
         <v>1362554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1349402</v>
+        <v>1349312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1373219</v>
+        <v>1372386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9783461226176057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9689023659906277</v>
+        <v>0.9688380478577795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860033904852217</v>
+        <v>0.9854051923796271</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>12634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6323</v>
+        <v>6197</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24036</v>
+        <v>24242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02055518480959419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0102871078869915</v>
+        <v>0.01008238705792557</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03910754507530027</v>
+        <v>0.03944286074117245</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3379,19 +3379,19 @@
         <v>15886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9548</v>
+        <v>9196</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25749</v>
+        <v>25236</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02578019596686804</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01549455084224555</v>
+        <v>0.01492386125470273</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04178753818660468</v>
+        <v>0.04095497449589622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3400,19 +3400,19 @@
         <v>28519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19125</v>
+        <v>18672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42183</v>
+        <v>41570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02317104920396065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01553832479541943</v>
+        <v>0.01517050996458822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03427228824504996</v>
+        <v>0.03377426972966387</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>601983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590581</v>
+        <v>590375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608294</v>
+        <v>608420</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9794448151904058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9608924549246995</v>
+        <v>0.9605571392588276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9897128921130084</v>
+        <v>0.9899176129420745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -3450,19 +3450,19 @@
         <v>600313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590450</v>
+        <v>590963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606651</v>
+        <v>607003</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9742198040331319</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9582124618133954</v>
+        <v>0.9590450255041039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9845054491577545</v>
+        <v>0.9850761387452973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1062</v>
@@ -3471,19 +3471,19 @@
         <v>1202297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1188633</v>
+        <v>1189246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1211691</v>
+        <v>1212144</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9768289507960394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9657277117549501</v>
+        <v>0.9662257302703364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9844616752045806</v>
+        <v>0.9848294900354119</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>10756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5744</v>
+        <v>5103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19327</v>
+        <v>18497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02504750454769224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01337612679618869</v>
+        <v>0.01188257606182308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04500617003438046</v>
+        <v>0.04307453208582915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3596,19 +3596,19 @@
         <v>9866</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4975</v>
+        <v>5132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18138</v>
+        <v>19508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02203234067822267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0111101250969115</v>
+        <v>0.01146158031320675</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04050401067461814</v>
+        <v>0.04356329452972832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3617,19 +3617,19 @@
         <v>20622</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12292</v>
+        <v>12896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30420</v>
+        <v>31938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02350835099194111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01401276804403656</v>
+        <v>0.01470125173993426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03467731968466284</v>
+        <v>0.03640784197171087</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>418673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410102</v>
+        <v>410932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>423685</v>
+        <v>424326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9749524954523078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9549938299656197</v>
+        <v>0.9569254679141709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9866238732038114</v>
+        <v>0.988117423938177</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>397</v>
@@ -3667,19 +3667,19 @@
         <v>437934</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429662</v>
+        <v>428292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442825</v>
+        <v>442668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9779676593217773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9594959893253818</v>
+        <v>0.9564367054702722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9888898749030886</v>
+        <v>0.9885384196867933</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>780</v>
@@ -3688,19 +3688,19 @@
         <v>856607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>846809</v>
+        <v>845291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>864937</v>
+        <v>864333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9764916490080588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9653226803153371</v>
+        <v>0.9635921580282891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9859872319559635</v>
+        <v>0.9852987482600657</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>9696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4663</v>
+        <v>4090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17687</v>
+        <v>17890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03129748400976112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01505079332588624</v>
+        <v>0.01320385460441375</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05709391839715647</v>
+        <v>0.05774875985862356</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3813,19 +3813,19 @@
         <v>3785</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11467</v>
+        <v>10918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01069249930383834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002754205803785814</v>
+        <v>0.002726875489431702</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03239185710182695</v>
+        <v>0.03084122906325864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3834,19 +3834,19 @@
         <v>13481</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6832</v>
+        <v>7422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22818</v>
+        <v>23496</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02030881579838568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01029193928251026</v>
+        <v>0.01118196796791699</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0343760963521003</v>
+        <v>0.03539791081293719</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>300090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292099</v>
+        <v>291896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305123</v>
+        <v>305696</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9687025159902389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9429060816028436</v>
+        <v>0.9422512401413756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9849492066741138</v>
+        <v>0.9867961453955861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -3884,19 +3884,19 @@
         <v>350211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342529</v>
+        <v>343078</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>353021</v>
+        <v>353031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9893075006961617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9676081428981729</v>
+        <v>0.9691587709367396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9972457941962142</v>
+        <v>0.9972731245105683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>614</v>
@@ -3905,19 +3905,19 @@
         <v>650301</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>640964</v>
+        <v>640286</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>656950</v>
+        <v>656360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9796911842016143</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9656239036479005</v>
+        <v>0.9646020891870635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9897080607174897</v>
+        <v>0.9888180320320833</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>8534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3236</v>
+        <v>3297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18107</v>
+        <v>17440</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03415824055185156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01295037809137611</v>
+        <v>0.01319398407748382</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07247061729001604</v>
+        <v>0.06980021969572181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4030,19 +4030,19 @@
         <v>9720</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4414</v>
+        <v>5354</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17326</v>
+        <v>18411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02498835654286032</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0113483681053448</v>
+        <v>0.01376413806027386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04454248975834427</v>
+        <v>0.04733083575117245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4051,19 +4051,19 @@
         <v>18254</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10390</v>
+        <v>10741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28677</v>
+        <v>29472</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02857476275375829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01626363451781949</v>
+        <v>0.01681381267813179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04489046034269705</v>
+        <v>0.04613391556085455</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>241317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231744</v>
+        <v>232411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246615</v>
+        <v>246554</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9658417594481484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9275293827099836</v>
+        <v>0.9301997803042789</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9870496219086239</v>
+        <v>0.9868060159225162</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>341</v>
@@ -4101,19 +4101,19 @@
         <v>379259</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>371653</v>
+        <v>370568</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>384565</v>
+        <v>383625</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9750116434571396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9554575102416558</v>
+        <v>0.9526691642488273</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9886516318946552</v>
+        <v>0.9862358619397261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -4122,19 +4122,19 @@
         <v>620576</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>610153</v>
+        <v>609358</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>628440</v>
+        <v>628089</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9714252372462417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9551095396573028</v>
+        <v>0.9538660844391449</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9837363654821804</v>
+        <v>0.9831861873218681</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>63511</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01853380618876922</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4247,19 +4247,19 @@
         <v>74215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02085675847881449</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>124</v>
@@ -4268,19 +4268,19 @@
         <v>137726</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01971715309957937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3363268</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3345801</v>
+        <v>3343098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3378295</v>
+        <v>3377376</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9814661938112308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9763689575268567</v>
+        <v>0.9755801976559053</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9858515131992041</v>
+        <v>0.9855832831989126</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3229</v>
@@ -4318,19 +4318,19 @@
         <v>3484094</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3465531</v>
+        <v>3465518</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3500824</v>
+        <v>3500739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9791432415211855</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9739263789397536</v>
+        <v>0.9739226085559071</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9838448266602764</v>
+        <v>0.9838210651186395</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6383</v>
@@ -4339,19 +4339,19 @@
         <v>6847362</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6824482</v>
+        <v>6820993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6872582</v>
+        <v>6871020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9802828469004207</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9770073574141148</v>
+        <v>0.9765078766665701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9838934295177583</v>
+        <v>0.983669819083556</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9039</v>
+        <v>7827</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005937584354125655</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02155007968857756</v>
+        <v>0.01866017017469528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6862</v>
+        <v>5817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004808072935485201</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01733957872791702</v>
+        <v>0.01469796235406751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4728,19 +4728,19 @@
         <v>4393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1091</v>
+        <v>1289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12133</v>
+        <v>10720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00538925274954604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001338613475764093</v>
+        <v>0.001580898369002731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01488314542888888</v>
+        <v>0.01314927177231779</v>
       </c>
     </row>
     <row r="5">
@@ -4757,7 +4757,7 @@
         <v>416972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410424</v>
+        <v>411636</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4766,7 +4766,7 @@
         <v>0.9940624156458744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9784499203114224</v>
+        <v>0.9813398298253047</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>393852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388893</v>
+        <v>389938</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4787,7 +4787,7 @@
         <v>0.9951919270645148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.982660421272083</v>
+        <v>0.9853020376459325</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4799,19 +4799,19 @@
         <v>810825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803085</v>
+        <v>804498</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814127</v>
+        <v>813929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.994610747250454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9851168545711113</v>
+        <v>0.9868507282276826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986613865242359</v>
+        <v>0.9984191016309995</v>
       </c>
     </row>
     <row r="6">
@@ -4903,19 +4903,19 @@
         <v>4761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10501</v>
+        <v>9788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008063283305057446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00308680106946673</v>
+        <v>0.003136508719802306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01778408663180067</v>
+        <v>0.01657585483285072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4924,19 +4924,19 @@
         <v>5706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2785</v>
+        <v>2819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12367</v>
+        <v>12442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01012458531612256</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004942077730289467</v>
+        <v>0.005002889700903158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02194560760008005</v>
+        <v>0.02207802251369187</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4945,19 +4945,19 @@
         <v>10467</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4841</v>
+        <v>5631</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17312</v>
+        <v>18669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009069863478343989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00419516586701478</v>
+        <v>0.004879296244219323</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01500107756002574</v>
+        <v>0.01617703976896111</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>585735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>579995</v>
+        <v>580708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>588673</v>
+        <v>588644</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919367166949425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9822159133681994</v>
+        <v>0.9834241451671493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969131989305332</v>
+        <v>0.9968634912801977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -4995,19 +4995,19 @@
         <v>557838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>551177</v>
+        <v>551102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>560759</v>
+        <v>560725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898754146838774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9780543923999201</v>
+        <v>0.9779219774863082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950579222697106</v>
+        <v>0.9949971102990968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1135</v>
@@ -5016,19 +5016,19 @@
         <v>1143573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1136728</v>
+        <v>1135371</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1149199</v>
+        <v>1148409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.990930136521656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9849989224399741</v>
+        <v>0.9838229602310385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9958048341329852</v>
+        <v>0.9951207037557807</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>2812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8911</v>
+        <v>7896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004202542559866549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001343498253410952</v>
+        <v>0.001339708075235749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01331792841547609</v>
+        <v>0.01180028615583144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5141,19 +5141,19 @@
         <v>8520</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3852</v>
+        <v>4580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15395</v>
+        <v>15219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01288145038734192</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005823876215316927</v>
+        <v>0.006924992032346453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02327646813653776</v>
+        <v>0.02301089766890902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5162,19 +5162,19 @@
         <v>11332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5767</v>
+        <v>5730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19016</v>
+        <v>19078</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008516848482825206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004334208304435172</v>
+        <v>0.004306578188540134</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01429238592862466</v>
+        <v>0.01433902921518129</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>666285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660186</v>
+        <v>661201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668198</v>
+        <v>668201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9957974574401335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9866820715845245</v>
+        <v>0.9881997138441689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998656501746589</v>
+        <v>0.9986602919247642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -5212,19 +5212,19 @@
         <v>652866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645991</v>
+        <v>646167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657534</v>
+        <v>656806</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9871185496126581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9767235318634621</v>
+        <v>0.9769891023310909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9941761237846831</v>
+        <v>0.9930750079676535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1291</v>
@@ -5233,19 +5233,19 @@
         <v>1319151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1311467</v>
+        <v>1311405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324716</v>
+        <v>1324753</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9914831515171748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9857076140713754</v>
+        <v>0.9856609707848184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9956657916955648</v>
+        <v>0.9956934218114599</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>7132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3120</v>
+        <v>3150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16226</v>
+        <v>14815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01103951567745338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004829021003411515</v>
+        <v>0.004875705747222835</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02511544466844989</v>
+        <v>0.02293250135972741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5358,19 +5358,19 @@
         <v>9226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4100</v>
+        <v>5099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16523</v>
+        <v>17793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01421386551392346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006315917967385547</v>
+        <v>0.007856074575987583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02545601489549551</v>
+        <v>0.02741200976973279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -5379,19 +5379,19 @@
         <v>16358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9318</v>
+        <v>9135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27131</v>
+        <v>28172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01263040219255917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007194292302529163</v>
+        <v>0.00705366756482687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02094871147659071</v>
+        <v>0.02175264644029102</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>638916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629822</v>
+        <v>631233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642928</v>
+        <v>642898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9889604843225466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9748845553315503</v>
+        <v>0.9770674986402728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9951709789965885</v>
+        <v>0.9951242942527772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -5429,19 +5429,19 @@
         <v>639851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>632554</v>
+        <v>631284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>644977</v>
+        <v>643978</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9857861344860765</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9745439851045044</v>
+        <v>0.9725879902302678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9936840820326144</v>
+        <v>0.9921439254240124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1169</v>
@@ -5450,19 +5450,19 @@
         <v>1278767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1267994</v>
+        <v>1266953</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1285807</v>
+        <v>1285990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9873695978074408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9790512885234092</v>
+        <v>0.9782473535597083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928057076974708</v>
+        <v>0.9929463324351732</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>7226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15209</v>
+        <v>14899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01511909779999264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006069025523072041</v>
+        <v>0.00598457730337359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03182402138827164</v>
+        <v>0.03117565419152681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5575,19 +5575,19 @@
         <v>11962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5929</v>
+        <v>6003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22897</v>
+        <v>22091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02407590841853017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01193224588153965</v>
+        <v>0.01208275750779566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04608407970120804</v>
+        <v>0.04446153897024611</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -5596,19 +5596,19 @@
         <v>19188</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10973</v>
+        <v>10831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31558</v>
+        <v>31974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0196844784623222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01125714432744964</v>
+        <v>0.01111179283387581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03237480950940271</v>
+        <v>0.03280199311937709</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>470692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>462709</v>
+        <v>463019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475018</v>
+        <v>475058</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9848809022000073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9681759786117282</v>
+        <v>0.968824345808473</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939309744769279</v>
+        <v>0.9940154226966265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>424</v>
@@ -5646,19 +5646,19 @@
         <v>484887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>473952</v>
+        <v>474758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490920</v>
+        <v>490846</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9759240915814699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.953915920298792</v>
+        <v>0.9555384610297539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9880677541184604</v>
+        <v>0.9879172424922044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>842</v>
@@ -5667,19 +5667,19 @@
         <v>955579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>943209</v>
+        <v>942793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>963794</v>
+        <v>963936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9803155215376778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9676251904905994</v>
+        <v>0.967198006880623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9887428556725506</v>
+        <v>0.9888882071661244</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>5840</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2801</v>
+        <v>2817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12593</v>
+        <v>11640</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01746663185838983</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008377708152404429</v>
+        <v>0.008426713732306792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0376660318097457</v>
+        <v>0.03481721417784991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5792,19 +5792,19 @@
         <v>9929</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4924</v>
+        <v>4831</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17599</v>
+        <v>17997</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02628373488938343</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01303351363536184</v>
+        <v>0.01278847144365622</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0465875366567327</v>
+        <v>0.04763998768346427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -5813,19 +5813,19 @@
         <v>15769</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8805</v>
+        <v>9059</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24708</v>
+        <v>26143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02214407029391456</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01236432708421458</v>
+        <v>0.0127216032705773</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0346976973691077</v>
+        <v>0.03671341213793384</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>328490</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321737</v>
+        <v>322690</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331529</v>
+        <v>331513</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9825333681416102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9623339681902544</v>
+        <v>0.9651827858221502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9916222918475956</v>
+        <v>0.9915732862676933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -5863,19 +5863,19 @@
         <v>367833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>360163</v>
+        <v>359765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>372838</v>
+        <v>372931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9737162651106166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9534124633432673</v>
+        <v>0.9523600123165358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9869664863646382</v>
+        <v>0.9872115285563438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>664</v>
@@ -5884,19 +5884,19 @@
         <v>696323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687384</v>
+        <v>685949</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>703287</v>
+        <v>703033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9778559297060855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9653023026308922</v>
+        <v>0.9632865878620662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9876356729157854</v>
+        <v>0.9872783967294227</v>
       </c>
     </row>
     <row r="21">
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5714</v>
+        <v>5702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006382161752972593</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02223472113889955</v>
+        <v>0.02218573724877657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6009,19 +6009,19 @@
         <v>10043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4986</v>
+        <v>4961</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19658</v>
+        <v>19088</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02509794859905286</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01245924882028751</v>
+        <v>0.01239686938586666</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04912404663831257</v>
+        <v>0.04769998205844003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6030,19 +6030,19 @@
         <v>11684</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6056</v>
+        <v>5830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21507</v>
+        <v>20837</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01777877431888717</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009214677307128442</v>
+        <v>0.008871079909305319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03272689157742009</v>
+        <v>0.03170770559897265</v>
       </c>
     </row>
     <row r="23">
@@ -6059,7 +6059,7 @@
         <v>255358</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251284</v>
+        <v>251296</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -6068,7 +6068,7 @@
         <v>0.9936178382470274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9777652788611002</v>
+        <v>0.9778142627512234</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6080,19 +6080,19 @@
         <v>390126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>380511</v>
+        <v>381081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395183</v>
+        <v>395208</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9749020514009471</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9508759533616874</v>
+        <v>0.9523000179415599</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9875407511797125</v>
+        <v>0.9876031306141333</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>593</v>
@@ -6101,19 +6101,19 @@
         <v>645483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635660</v>
+        <v>636330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651111</v>
+        <v>651337</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9822212256811128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9672731084225799</v>
+        <v>0.9682922944010273</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9907853226928716</v>
+        <v>0.9911289200906946</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>31901</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009398386170788718</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -6226,19 +6226,19 @@
         <v>57288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01616244951944801</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -6247,19 +6247,19 @@
         <v>89190</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01285362159469058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>3362449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3348733</v>
+        <v>3348956</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3372458</v>
+        <v>3372139</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9906016138292113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9865607712579817</v>
+        <v>0.9866266989991999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9935503461690635</v>
+        <v>0.9934565568723384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3286</v>
@@ -6297,19 +6297,19 @@
         <v>3487254</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3470128</v>
+        <v>3469241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3501058</v>
+        <v>3501426</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.983837550480552</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.979006129607583</v>
+        <v>0.9787558421964071</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.987732221097438</v>
+        <v>0.9878360284228694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6487</v>
@@ -6318,19 +6318,19 @@
         <v>6849702</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6828688</v>
+        <v>6829483</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6867362</v>
+        <v>6869012</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9871463784053094</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9841179151723076</v>
+        <v>0.9842325064839206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9896914779188882</v>
+        <v>0.9899291622245554</v>
       </c>
     </row>
     <row r="27">
@@ -6665,19 +6665,19 @@
         <v>11053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4143</v>
+        <v>4151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25285</v>
+        <v>25696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02710558694674457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01016063406124499</v>
+        <v>0.01018040574004894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06200567391319558</v>
+        <v>0.06301217570174458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6686,19 +6686,19 @@
         <v>8510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2260</v>
+        <v>2278</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21945</v>
+        <v>20703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02347623132383889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006233190943664269</v>
+        <v>0.006283216877207438</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06053606501724276</v>
+        <v>0.05710973033289121</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6707,19 +6707,19 @@
         <v>19564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9549</v>
+        <v>9937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38360</v>
+        <v>37861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02539758192217485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01239600311620909</v>
+        <v>0.01289983458937743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04979883091998751</v>
+        <v>0.049150666477346</v>
       </c>
     </row>
     <row r="5">
@@ -6736,19 +6736,19 @@
         <v>396740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382508</v>
+        <v>382097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403650</v>
+        <v>403642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728944130532555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9379943260868043</v>
+        <v>0.9369878242982552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989839365938755</v>
+        <v>0.989819594259951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -6757,19 +6757,19 @@
         <v>354002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340567</v>
+        <v>341809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360252</v>
+        <v>360234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9765237686761611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9394639349827572</v>
+        <v>0.9428902696671088</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9937668090563356</v>
+        <v>0.9937167831227925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -6778,19 +6778,19 @@
         <v>750741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731945</v>
+        <v>732444</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760756</v>
+        <v>760368</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9746024180778252</v>
+        <v>0.9746024180778251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9502011690800124</v>
+        <v>0.9508493335226533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9876039968837906</v>
+        <v>0.9871001654106225</v>
       </c>
     </row>
     <row r="6">
@@ -6882,19 +6882,19 @@
         <v>4363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14414</v>
+        <v>12721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009148198995689036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002560600011681819</v>
+        <v>0.002555697332492782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03022526637214525</v>
+        <v>0.02667396241770548</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6903,19 +6903,19 @@
         <v>14163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7792</v>
+        <v>7229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24717</v>
+        <v>25963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02822758547305263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01552958218480481</v>
+        <v>0.014407815640781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04926247536211643</v>
+        <v>0.0517456906208093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -6924,19 +6924,19 @@
         <v>18525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10677</v>
+        <v>10827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32217</v>
+        <v>30096</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01893005736055882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01091055788262389</v>
+        <v>0.01106401394826635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03292064674424385</v>
+        <v>0.03075307400274477</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>472527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462476</v>
+        <v>464169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475669</v>
+        <v>475671</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9908518010043109</v>
+        <v>0.990851801004311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9697747336278548</v>
+        <v>0.9733260375822945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974393999883183</v>
+        <v>0.9974443026675074</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -6974,19 +6974,19 @@
         <v>487570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477016</v>
+        <v>475770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493941</v>
+        <v>494504</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9717724145269471</v>
+        <v>0.9717724145269474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9507375246378839</v>
+        <v>0.9482543093791908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9844704178151953</v>
+        <v>0.9855921843592191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>749</v>
@@ -6995,19 +6995,19 @@
         <v>960098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946406</v>
+        <v>948527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>967946</v>
+        <v>967796</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.981069942639441</v>
+        <v>0.9810699426394413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9670793532557561</v>
+        <v>0.9692469259972557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9890894421173759</v>
+        <v>0.9889359860517337</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>8356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3620</v>
+        <v>3831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16119</v>
+        <v>15685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01345855440117934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005831609477210562</v>
+        <v>0.006170608244509442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02596376974652318</v>
+        <v>0.02526417812518541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -7120,19 +7120,19 @@
         <v>19639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13166</v>
+        <v>13249</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28404</v>
+        <v>28506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03151420775836606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02112608564868543</v>
+        <v>0.02125960102513942</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04557750162350769</v>
+        <v>0.04574137136568111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -7141,19 +7141,19 @@
         <v>27995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19804</v>
+        <v>19140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39062</v>
+        <v>37969</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02250347698049229</v>
+        <v>0.02250347698049228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01591917928907948</v>
+        <v>0.01538534367789855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03139975622592683</v>
+        <v>0.03052139303936596</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>612481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604718</v>
+        <v>605152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>617217</v>
+        <v>617006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9865414455988207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9740362302534766</v>
+        <v>0.9747358218748148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941683905227892</v>
+        <v>0.9938293917554906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>822</v>
@@ -7191,19 +7191,19 @@
         <v>603554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>594789</v>
+        <v>594687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610027</v>
+        <v>609944</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9684857922416339</v>
+        <v>0.9684857922416341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9544224983764923</v>
+        <v>0.9542586286343194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788739143513147</v>
+        <v>0.9787403989748608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1360</v>
@@ -7212,19 +7212,19 @@
         <v>1216034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204967</v>
+        <v>1206060</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1224225</v>
+        <v>1224889</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9774965230195076</v>
+        <v>0.9774965230195075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9686002437740733</v>
+        <v>0.9694786069606354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9840808207109206</v>
+        <v>0.9846146563221015</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>20639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12922</v>
+        <v>13209</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31036</v>
+        <v>31459</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02945881895149712</v>
+        <v>0.02945881895149711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01844342212574319</v>
+        <v>0.0188539764754196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04429836018381327</v>
+        <v>0.04490131641089903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -7337,19 +7337,19 @@
         <v>22139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16160</v>
+        <v>15779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31172</v>
+        <v>30240</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03004359493778349</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02192976776861287</v>
+        <v>0.02141341740661972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04230188976322796</v>
+        <v>0.04103799797568482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -7358,19 +7358,19 @@
         <v>42778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31382</v>
+        <v>31535</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55127</v>
+        <v>54748</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02975858409742367</v>
+        <v>0.02975858409742368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02183110800902793</v>
+        <v>0.02193750792239921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03834913765685427</v>
+        <v>0.03808521939952965</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>679978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>669581</v>
+        <v>669158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>687695</v>
+        <v>687408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9705411810485028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9557016398161869</v>
+        <v>0.9550986835891017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9815565778742569</v>
+        <v>0.9811460235245805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1108</v>
@@ -7408,19 +7408,19 @@
         <v>714747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>705714</v>
+        <v>706646</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>720726</v>
+        <v>721107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699564050622165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.957698110236772</v>
+        <v>0.9589620020243153</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780702322313871</v>
+        <v>0.9785865825933805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1753</v>
@@ -7429,19 +7429,19 @@
         <v>1394726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1382377</v>
+        <v>1382756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1406122</v>
+        <v>1405969</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9702414159025763</v>
+        <v>0.9702414159025764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9616508623431458</v>
+        <v>0.9619147806004703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9781688919909721</v>
+        <v>0.9780624920776008</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>15961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9406</v>
+        <v>9817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25454</v>
+        <v>25457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02619330600612109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01543652791088533</v>
+        <v>0.01611027042085377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0417724720280137</v>
+        <v>0.04177741628957039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -7554,19 +7554,19 @@
         <v>13515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8563</v>
+        <v>8832</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20593</v>
+        <v>19786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02219711824610995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01406411236703583</v>
+        <v>0.01450627854027972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03382245300936412</v>
+        <v>0.03249655368944093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -7575,19 +7575,19 @@
         <v>29476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20626</v>
+        <v>21235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39598</v>
+        <v>40573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02419601753530546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01693162182178117</v>
+        <v>0.01743103127003518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03250559432608388</v>
+        <v>0.03330573912372278</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>593385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583892</v>
+        <v>583889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599940</v>
+        <v>599529</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9738066939938789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9582275279719863</v>
+        <v>0.9582225837104296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845634720891147</v>
+        <v>0.9838897295791462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>982</v>
@@ -7625,19 +7625,19 @@
         <v>595340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>588262</v>
+        <v>589069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>600292</v>
+        <v>600023</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.97780288175389</v>
+        <v>0.9778028817538901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.966177546990636</v>
+        <v>0.9675034463105592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9859358876329644</v>
+        <v>0.9854937214597204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1628</v>
@@ -7646,19 +7646,19 @@
         <v>1188726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1178604</v>
+        <v>1177629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1197576</v>
+        <v>1196967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9758039824646946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9674944056739163</v>
+        <v>0.9666942608762773</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9830683781782189</v>
+        <v>0.9825689687299648</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>11106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6583</v>
+        <v>6353</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17278</v>
+        <v>18479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02728300867361084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01617190250657231</v>
+        <v>0.01560551655349643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04244397977684511</v>
+        <v>0.04539463385538339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -7771,19 +7771,19 @@
         <v>14625</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9954</v>
+        <v>9934</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21702</v>
+        <v>21971</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03330199543712589</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02266538017098751</v>
+        <v>0.02262105665974963</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04941653959577363</v>
+        <v>0.05002989245872538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -7792,19 +7792,19 @@
         <v>25731</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18012</v>
+        <v>18259</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34571</v>
+        <v>34298</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03040661071106432</v>
+        <v>0.03040661071106433</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02128517667238932</v>
+        <v>0.02157619711433042</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04085238062367896</v>
+        <v>0.04052955331068344</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>395974</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>389802</v>
+        <v>388601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400497</v>
+        <v>400727</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9727169913263891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.957556020223155</v>
+        <v>0.9546053661446164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9838280974934283</v>
+        <v>0.9843944834465036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>803</v>
@@ -7842,19 +7842,19 @@
         <v>424541</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>417464</v>
+        <v>417195</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>429212</v>
+        <v>429232</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9666980045628742</v>
+        <v>0.9666980045628741</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.950583460404226</v>
+        <v>0.9499701075412743</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9773346198290123</v>
+        <v>0.9773789433402501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1358</v>
@@ -7863,19 +7863,19 @@
         <v>820515</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811675</v>
+        <v>811948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>828234</v>
+        <v>827987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9695933892889357</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9591476193763212</v>
+        <v>0.9594704466893166</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9787148233276108</v>
+        <v>0.9784238028856694</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>9619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5459</v>
+        <v>5614</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17487</v>
+        <v>16240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03101047458463291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01759696082093261</v>
+        <v>0.01809720790622197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05637212765639361</v>
+        <v>0.05235304886121669</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -7988,19 +7988,19 @@
         <v>21569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15052</v>
+        <v>15393</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28876</v>
+        <v>29165</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04642388233941603</v>
+        <v>0.04642388233941602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03239684367036628</v>
+        <v>0.03313083947794195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06215133483335149</v>
+        <v>0.0627741259628871</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -8009,19 +8009,19 @@
         <v>31188</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23536</v>
+        <v>23539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40358</v>
+        <v>40367</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04025304007388753</v>
+        <v>0.04025304007388752</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03037637819974505</v>
+        <v>0.0303810985384099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05208792022850487</v>
+        <v>0.05209893500159007</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>300579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>292711</v>
+        <v>293958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304739</v>
+        <v>304584</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.968989525415367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9436278723436066</v>
+        <v>0.9476469511387831</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9824030391790672</v>
+        <v>0.9819027920937782</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>839</v>
@@ -8059,19 +8059,19 @@
         <v>443040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>435733</v>
+        <v>435444</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>449557</v>
+        <v>449216</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.953576117660584</v>
+        <v>0.9535761176605839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9378486651666484</v>
+        <v>0.9372258740371127</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9676031563296338</v>
+        <v>0.9668691605220576</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1283</v>
@@ -8080,19 +8080,19 @@
         <v>743619</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>734449</v>
+        <v>734440</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>751271</v>
+        <v>751268</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9597469599261126</v>
+        <v>0.9597469599261124</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9479120797714951</v>
+        <v>0.9479010649984103</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9696236218002549</v>
+        <v>0.9696189014615904</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>81098</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02295587409613958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>160</v>
@@ -8205,19 +8205,19 @@
         <v>114160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>242</v>
@@ -8226,19 +8226,19 @@
         <v>195258</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>3451664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3428797</v>
+        <v>3431713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3468087</v>
+        <v>3470225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9770441259038606</v>
+        <v>0.9770441259038605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9705711491769587</v>
+        <v>0.9713966202987564</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9816926591261556</v>
+        <v>0.9822980479121628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5207</v>
@@ -8276,19 +8276,19 @@
         <v>3622794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3602599</v>
+        <v>3604156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3639842</v>
+        <v>3640905</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9694510169453275</v>
+        <v>0.9694510169453272</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9640468003769294</v>
+        <v>0.9644635086888002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9740131765057651</v>
+        <v>0.9742975680147318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8501</v>
@@ -8297,19 +8297,19 @@
         <v>7074458</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7043597</v>
+        <v>7046136</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7096589</v>
+        <v>7099246</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9731409335555105</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9688956954500664</v>
+        <v>0.9692450482277039</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9761851256863076</v>
+        <v>0.9765507107987668</v>
       </c>
     </row>
     <row r="27">
